--- a/Ergebnis FWHM in abh der Res Laenge.xlsx
+++ b/Ergebnis FWHM in abh der Res Laenge.xlsx
@@ -16,23 +16,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Resonatorlänge</t>
-  </si>
-  <si>
-    <t>FWHM x</t>
-  </si>
-  <si>
-    <t>FWHM y</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>Fehler Resonatorlänge</t>
+  </si>
+  <si>
+    <t>x-Breite in mm</t>
+  </si>
+  <si>
+    <t>y-Breite in mm</t>
+  </si>
+  <si>
+    <t>Pixel</t>
+  </si>
+  <si>
+    <t>mm/Pixel</t>
+  </si>
+  <si>
+    <t>FWHM x/Pixel</t>
+  </si>
+  <si>
+    <t>FWHM y/Pixel</t>
+  </si>
+  <si>
+    <t>FWHM x/mm</t>
+  </si>
+  <si>
+    <t>FWHM y/mm</t>
+  </si>
+  <si>
+    <t>Mittelwert/mm</t>
+  </si>
+  <si>
+    <t>Fehler/mm</t>
+  </si>
+  <si>
+    <t>Resonatorlänge/cm</t>
+  </si>
+  <si>
+    <t>Theoretische Werte</t>
+  </si>
+  <si>
+    <t>Breite bei Austritt/mm</t>
+  </si>
+  <si>
+    <t>Spiegelradius/mm</t>
+  </si>
+  <si>
+    <t>z0/m</t>
+  </si>
+  <si>
+    <t>Omega0/m</t>
+  </si>
+  <si>
+    <t>Wellenlänge/m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -63,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -101,9 +148,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13517351535495464"/>
-          <c:y val="2.4288635562345753E-2"/>
-          <c:w val="0.62090619813569259"/>
+          <c:x val="4.7062518207867124E-2"/>
+          <c:y val="7.1008776398329143E-2"/>
+          <c:w val="0.90766418581238983"/>
           <c:h val="0.85610279312100912"/>
         </c:manualLayout>
       </c:layout>
@@ -116,6 +163,120 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tabelle1!$G$2:$G$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.7286727989487289E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.4594480946123514E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.153692509855476E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6327568988173446E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.4522996057818647E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.5892772667542872E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.8612352168199711E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.7758738501971791E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.045561103810777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.3218396846254938E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tabelle1!$G$2:$G$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.7286727989487289E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5.4594480946123514E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.153692509855476E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6327568988173446E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.4522996057818647E-4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3.5892772667542872E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>5.8612352168199711E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.7758738501971791E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.045561103810777E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>3.3218396846254938E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Tabelle1!$N$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Tabelle1!$N$5</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$2:$A$11</c:f>
@@ -157,39 +318,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$11</c:f>
+              <c:f>Tabelle1!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>45.9011</c:v>
+                  <c:v>0.28579206307490146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.559899999999999</c:v>
+                  <c:v>0.4459039159001314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63.159500000000001</c:v>
+                  <c:v>0.39622423127463857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.216999999999999</c:v>
+                  <c:v>0.32045582128777922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.262300000000003</c:v>
+                  <c:v>0.37454160315374507</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.165599999999998</c:v>
+                  <c:v>0.40200567674113008</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.172899999999998</c:v>
+                  <c:v>0.46198360052562415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80.092399999999998</c:v>
+                  <c:v>0.51295789750328513</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.8733</c:v>
+                  <c:v>0.58994554533508536</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>130.78100000000001</c:v>
+                  <c:v>0.85811826544021019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -199,6 +360,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Theoretische Werte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -243,39 +415,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$11</c:f>
+              <c:f>Tabelle1!$D$27:$D$36</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.0000000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>44.718800000000002</c:v>
+                  <c:v>0.23713170618349835</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.828800000000001</c:v>
+                  <c:v>0.25951579193449104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.476599999999998</c:v>
+                  <c:v>0.28158322538105163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.394199999999998</c:v>
+                  <c:v>0.30448049272206285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.498600000000003</c:v>
+                  <c:v>0.32942131325383095</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.303700000000006</c:v>
+                  <c:v>0.35808875750443037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.314400000000006</c:v>
+                  <c:v>0.39338685491381192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.558000000000007</c:v>
+                  <c:v>0.44158133434835406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.188599999999994</c:v>
+                  <c:v>0.52154742184997749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141.31399999999999</c:v>
+                  <c:v>0.77552594493546945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -290,11 +462,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47405824"/>
-        <c:axId val="47405248"/>
+        <c:axId val="129600896"/>
+        <c:axId val="129601472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47405824"/>
+        <c:axId val="129600896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -304,30 +476,39 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47405248"/>
+        <c:crossAx val="129601472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47405248"/>
+        <c:axId val="129601472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47405824"/>
+        <c:crossAx val="129600896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72544378528026465"/>
+          <c:y val="0.78815045531508188"/>
+          <c:w val="0.202366231618308"/>
+          <c:h val="8.9133276085406152E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -346,16 +527,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -664,31 +845,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -698,8 +903,37 @@
       <c r="C2" s="1">
         <v>44.718800000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <f>B2*$N$2</f>
+        <v>0.28952073587385019</v>
+      </c>
+      <c r="E2" s="1">
+        <f>C2*$N$2</f>
+        <v>0.28206339027595267</v>
+      </c>
+      <c r="F2">
+        <f>(E2+D2)/2</f>
+        <v>0.28579206307490146</v>
+      </c>
+      <c r="G2">
+        <f>ABS(D2-F2)</f>
+        <v>3.7286727989487289E-3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>4.8</v>
+      </c>
+      <c r="M2">
+        <v>761</v>
+      </c>
+      <c r="N2">
+        <f>L2/M2</f>
+        <v>6.3074901445466488E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -709,8 +943,37 @@
       <c r="C3" s="1">
         <v>69.828800000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:E11" si="0">B3*$N$2</f>
+        <v>0.45136336399474375</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44044446780551905</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="1">(E3+D3)/2</f>
+        <v>0.4459039159001314</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="2">ABS(D3-F3)</f>
+        <v>5.4594480946123514E-3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3.6</v>
+      </c>
+      <c r="M3">
+        <v>571</v>
+      </c>
+      <c r="N3">
+        <f>L3/M3</f>
+        <v>6.3047285464098079E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>39</v>
       </c>
@@ -720,8 +983,24 @@
       <c r="C4" s="1">
         <v>62.476599999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39837792378449405</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39407053876478315</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0.39622423127463857</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>2.153692509855476E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>46</v>
       </c>
@@ -731,8 +1010,30 @@
       <c r="C5" s="1">
         <v>53.394199999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.30412825229960577</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33678339027595267</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.32045582128777922</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1.6327568988173446E-2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>53</v>
       </c>
@@ -742,8 +1043,24 @@
       <c r="C6" s="1">
         <v>59.498600000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37379637319316689</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37528683311432326</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.37454160315374507</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>7.4522996057818647E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
       </c>
@@ -753,8 +1070,24 @@
       <c r="C7" s="1">
         <v>64.303700000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.39841639947437579</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40559495400788437</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.40200567674113008</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>3.5892772667542872E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>67</v>
       </c>
@@ -764,8 +1097,24 @@
       <c r="C8" s="1">
         <v>72.314400000000006</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46784483574244412</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45612236530880423</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.46198360052562415</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>5.8612352168199711E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>74</v>
       </c>
@@ -775,8 +1124,24 @@
       <c r="C9" s="1">
         <v>82.558000000000007</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50518202365308795</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52073377135348231</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.51295789750328513</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>7.7758738501971791E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
@@ -786,8 +1151,24 @@
       <c r="C10" s="1">
         <v>95.188599999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.57948993429697759</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60040115637319313</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.58994554533508536</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1.045561103810777E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>88</v>
       </c>
@@ -796,6 +1177,218 @@
       </c>
       <c r="C11" s="1">
         <v>141.31399999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.82489986859395525</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89133666228646513</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.85811826544021019</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>3.3218396846254938E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <f>633*10^-9</f>
+        <v>6.3300000000000002E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.20155600000000001</v>
+      </c>
+      <c r="C27">
+        <f>SQRT(B27*$B$21/PI())</f>
+        <v>2.0152307628816323E-4</v>
+      </c>
+      <c r="D27">
+        <f>C27*SQRT(1 + (A27/(200*B27))^2)*1000</f>
+        <v>0.23713170618349835</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>0.21540699999999999</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C36" si="3">SQRT(B28*$B$21/PI())</f>
+        <v>2.0833240375532175E-4</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D36" si="4">C28*SQRT(1 + (A28/(200*B28))^2)*1000</f>
+        <v>0.25951579193449104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>0.22299099999999999</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>2.1196813867276404E-4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>0.28158322538105163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>0.22494400000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>2.1289434490112918E-4</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>0.30448049272206285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>0.221416</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>2.1121823977492577E-4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>0.32942131325383095</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>0.21213199999999999</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>2.0674261821687843E-4</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>0.35808875750443037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>67</v>
+      </c>
+      <c r="B33">
+        <v>0.19627800000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>1.9886700385675308E-4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>0.39338685491381192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>0.17204700000000001</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>1.8618747864872722E-4</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>0.44158133434835406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>81</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>1.6492777608345975E-4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>0.52154742184997749</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>88</v>
+      </c>
+      <c r="B36">
+        <v>6.6332500000000003E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>1.1560858922461698E-4</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>0.77552594493546945</v>
       </c>
     </row>
   </sheetData>

--- a/Ergebnis FWHM in abh der Res Laenge.xlsx
+++ b/Ergebnis FWHM in abh der Res Laenge.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Fehler Resonatorlänge</t>
   </si>
@@ -70,15 +70,19 @@
   </si>
   <si>
     <t>Wellenlänge/m</t>
+  </si>
+  <si>
+    <t>Fehler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,10 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -420,34 +425,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.23713170618349835</c:v>
+                  <c:v>0.47426341236699671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25951579193449104</c:v>
+                  <c:v>0.51903158386898207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28158322538105163</c:v>
+                  <c:v>0.56316645076210325</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30448049272206285</c:v>
+                  <c:v>0.60896098544412569</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32942131325383095</c:v>
+                  <c:v>0.6588426265076619</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35808875750443037</c:v>
+                  <c:v>0.71617751500886073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39338685491381192</c:v>
+                  <c:v>0.78677370982762385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44158133434835406</c:v>
+                  <c:v>0.88316266869670812</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52154742184997749</c:v>
+                  <c:v>1.043094843699955</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77552594493546945</c:v>
+                  <c:v>1.5510518898709389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -462,11 +467,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129600896"/>
-        <c:axId val="129601472"/>
+        <c:axId val="53742208"/>
+        <c:axId val="53748096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129600896"/>
+        <c:axId val="53742208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,12 +481,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129601472"/>
+        <c:crossAx val="53748096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129601472"/>
+        <c:axId val="53748096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -492,7 +497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129600896"/>
+        <c:crossAx val="53742208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -847,15 +852,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1195,12 +1201,12 @@
         <v>3.3218396846254938E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>6.3300000000000002E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1230,8 +1236,11 @@
       <c r="D26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1243,11 +1252,15 @@
         <v>2.0152307628816323E-4</v>
       </c>
       <c r="D27">
-        <f>C27*SQRT(1 + (A27/(200*B27))^2)*1000</f>
-        <v>0.23713170618349835</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <f>2*C27*SQRT(1 + (A27/(200*B27))^2)*1000</f>
+        <v>0.47426341236699671</v>
+      </c>
+      <c r="E27" s="3">
+        <f>(A27* C27)/(20 *SQRT(1 + A27^2/(40000* B27^2))* B27^2)*1.5</f>
+        <v>7.904415340611641E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>32</v>
       </c>
@@ -1259,11 +1272,15 @@
         <v>2.0833240375532175E-4</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:D36" si="4">C28*SQRT(1 + (A28/(200*B28))^2)*1000</f>
-        <v>0.25951579193449104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D28:D36" si="4">2*C28*SQRT(1 + (A28/(200*B28))^2)*1000</f>
+        <v>0.51903158386898207</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" ref="E28:E36" si="5">(A28* C28)/(20 *SQRT(1 + A28^2/(40000* B28^2))* B28^2)*1.5</f>
+        <v>8.6505052943079731E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>39</v>
       </c>
@@ -1276,10 +1293,14 @@
       </c>
       <c r="D29">
         <f t="shared" si="4"/>
-        <v>0.28158322538105163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.56316645076210325</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="5"/>
+        <v>9.3861090015364915E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>46</v>
       </c>
@@ -1292,10 +1313,14 @@
       </c>
       <c r="D30">
         <f t="shared" si="4"/>
-        <v>0.30448049272206285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.60896098544412569</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0149369062188482E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>53</v>
       </c>
@@ -1308,10 +1333,14 @@
       </c>
       <c r="D31">
         <f t="shared" si="4"/>
-        <v>0.32942131325383095</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.6588426265076619</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.0980706292975054E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>60</v>
       </c>
@@ -1324,10 +1353,14 @@
       </c>
       <c r="D32">
         <f t="shared" si="4"/>
-        <v>0.35808875750443037</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.71617751500886073</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1936293205580347E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>67</v>
       </c>
@@ -1340,10 +1373,14 @@
       </c>
       <c r="D33">
         <f t="shared" si="4"/>
-        <v>0.39338685491381192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.78677370982762385</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3112890528919709E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>74</v>
       </c>
@@ -1356,10 +1393,14 @@
       </c>
       <c r="D34">
         <f t="shared" si="4"/>
-        <v>0.44158133434835406</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.88316266869670812</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4719362764356441E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>81</v>
       </c>
@@ -1372,10 +1413,14 @@
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
-        <v>0.52154742184997749</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.043094843699955</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7384914061665917E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>88</v>
       </c>
@@ -1388,7 +1433,11 @@
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>0.77552594493546945</v>
+        <v>1.5510518898709389</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="5"/>
+        <v>2.5850864758558363E-2</v>
       </c>
     </row>
   </sheetData>
